--- a/baseOrder.xlsx
+++ b/baseOrder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HGB\Desktop\hrm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hgbprj\gss\gssFe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD48EF9-0FA2-458B-A902-4E980CE2EF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D1DD02-C871-49EF-861A-6AFBEE48D87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35430" yWindow="-1275" windowWidth="21600" windowHeight="12900" xr2:uid="{A50215DE-9D29-41F3-884E-67A90FB7FB21}"/>
+    <workbookView xWindow="3630" yWindow="810" windowWidth="21600" windowHeight="12900" xr2:uid="{A50215DE-9D29-41F3-884E-67A90FB7FB21}"/>
   </bookViews>
   <sheets>
     <sheet name="발주" sheetId="1" r:id="rId1"/>
@@ -907,6 +907,201 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="3" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -935,201 +1130,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="3" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1451,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C082301-E87D-40F7-967E-150044E61BBA}">
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15:O15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -1481,83 +1481,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="9" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
     </row>
     <row r="3" spans="1:21" ht="36" customHeight="1" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
     </row>
     <row r="4" spans="1:21" ht="23.25" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1566,40 +1566,40 @@
       <c r="M4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="51"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="55"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="57"/>
     </row>
     <row r="5" spans="1:21" ht="23.25" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="56"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="58"/>
     </row>
     <row r="6" spans="1:21" ht="23.25" customHeight="1" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1608,12 +1608,12 @@
       <c r="M6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="63"/>
     </row>
     <row r="7" spans="1:21" ht="23.25" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -1622,10 +1622,10 @@
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1649,29 +1649,29 @@
       <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="49" t="s">
+      <c r="M8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
     </row>
     <row r="9" spans="1:21" ht="23.25" customHeight="1">
       <c r="A9" s="8" t="s">
@@ -1680,25 +1680,25 @@
       <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="10"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="41" t="s">
+      <c r="M9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
     </row>
@@ -1709,9 +1709,9 @@
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -1721,428 +1721,425 @@
         <v>11</v>
       </c>
       <c r="L10" s="11"/>
-      <c r="M10" s="41" t="s">
+      <c r="M10" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
     </row>
     <row r="11" spans="1:21" ht="27" customHeight="1" thickBot="1">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62" t="s">
+      <c r="B11" s="67"/>
+      <c r="C11" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62" t="s">
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63" t="s">
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="62" t="s">
+      <c r="L11" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62" t="s">
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62" t="s">
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="64"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="68"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="82"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="28"/>
     </row>
     <row r="13" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A13" s="70"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="83"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="30"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A14" s="70"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="81"/>
-      <c r="U14" s="83"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="30"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A15" s="70"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="83"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="30"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A16" s="70"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="81"/>
-      <c r="U16" s="83"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="30"/>
     </row>
     <row r="17" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A17" s="70"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="83"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="30"/>
     </row>
     <row r="18" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A18" s="70"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="80"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="83"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="30"/>
     </row>
     <row r="19" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A19" s="70"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="83"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="30"/>
     </row>
     <row r="20" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A20" s="70"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="83"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="30"/>
     </row>
     <row r="21" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A21" s="70"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="81"/>
-      <c r="T21" s="81"/>
-      <c r="U21" s="83"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="30"/>
     </row>
     <row r="22" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A22" s="70"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="83"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="30"/>
     </row>
     <row r="23" spans="1:21" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A23" s="86"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="91"/>
-      <c r="T23" s="91"/>
-      <c r="U23" s="92"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="35"/>
     </row>
     <row r="24" spans="1:21" ht="27" customHeight="1" thickBot="1">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="94"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="77"/>
       <c r="K24" s="16"/>
-      <c r="L24" s="33">
-        <f>SUM(L12:L23)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="39"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="84"/>
     </row>
     <row r="25" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="25"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="90"/>
     </row>
     <row r="26" spans="1:21" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="28"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="93"/>
     </row>
     <row r="27" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="85"/>
+      <c r="T27" s="85"/>
       <c r="U27" s="18"/>
     </row>
     <row r="28" spans="1:21" ht="27.75" customHeight="1">
@@ -2151,12 +2148,12 @@
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
@@ -2171,24 +2168,24 @@
       <c r="U28" s="18"/>
     </row>
     <row r="29" spans="1:21" ht="21" customHeight="1">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
       <c r="Q29" s="18"/>
       <c r="R29" s="18"/>
       <c r="S29" s="18"/>
@@ -2198,75 +2195,75 @@
     <row r="30" spans="1:21" ht="21" customHeight="1">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="85"/>
+      <c r="U30" s="85"/>
     </row>
     <row r="31" spans="1:21" ht="21" customHeight="1">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="85"/>
+      <c r="T31" s="85"/>
+      <c r="U31" s="85"/>
     </row>
     <row r="32" spans="1:21" ht="21" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="85"/>
+      <c r="U32" s="85"/>
     </row>
     <row r="33" spans="1:21" ht="21" customHeight="1">
       <c r="A33" s="18"/>
@@ -2306,83 +2303,67 @@
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="86"/>
+      <c r="R34" s="86"/>
+      <c r="S34" s="86"/>
       <c r="T34" s="19"/>
       <c r="U34" s="19"/>
     </row>
     <row r="35" spans="1:21" ht="21" customHeight="1">
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="87"/>
+      <c r="S35" s="87"/>
     </row>
     <row r="36" spans="1:21" ht="21" customHeight="1">
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="87"/>
+      <c r="S36" s="87"/>
     </row>
     <row r="1048575" spans="7:21" ht="21" customHeight="1" thickBot="1"/>
     <row r="1048576" spans="7:21" ht="21" customHeight="1">
-      <c r="G1048576" s="71"/>
-      <c r="H1048576" s="72"/>
-      <c r="R1048576" s="76"/>
-      <c r="S1048576" s="77"/>
-      <c r="T1048576" s="77"/>
-      <c r="U1048576" s="78"/>
+      <c r="G1048576" s="36"/>
+      <c r="H1048576" s="37"/>
+      <c r="R1048576" s="31"/>
+      <c r="S1048576" s="32"/>
+      <c r="T1048576" s="32"/>
+      <c r="U1048576" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="R1048576:U1048576"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="G1048576:H1048576"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C12:E12"/>
@@ -2407,19 +2388,37 @@
     <mergeCell ref="M10:S10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="G1048576:H1048576"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="L15:O15"/>
     <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:U15"/>
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="L17:O17"/>
     <mergeCell ref="G15:H15"/>
@@ -2427,26 +2426,24 @@
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="L18:O18"/>
     <mergeCell ref="L19:O19"/>
-    <mergeCell ref="R19:U19"/>
     <mergeCell ref="L20:O20"/>
     <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:U20"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="R1048576:U1048576"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="R20:U20"/>
     <mergeCell ref="R22:U22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="G21:H21"/>
     <mergeCell ref="C32:U32"/>
     <mergeCell ref="M34:S34"/>
     <mergeCell ref="M35:S35"/>

--- a/baseOrder.xlsx
+++ b/baseOrder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hgbprj\gss\gssFe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D1DD02-C871-49EF-861A-6AFBEE48D87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB1EC38-46B4-42E5-9744-C27252D82C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3630" yWindow="810" windowWidth="21600" windowHeight="12900" xr2:uid="{A50215DE-9D29-41F3-884E-67A90FB7FB21}"/>
   </bookViews>
@@ -353,7 +353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -531,93 +531,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -687,60 +607,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -778,45 +644,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -827,6 +654,209 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -895,9 +925,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -907,229 +934,232 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="14" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="3" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1451,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C082301-E87D-40F7-967E-150044E61BBA}">
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -1481,83 +1511,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="9" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:21" ht="36" customHeight="1" thickBot="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
     </row>
     <row r="4" spans="1:21" ht="23.25" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1566,40 +1596,40 @@
       <c r="M4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="53"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="57"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="27"/>
     </row>
     <row r="5" spans="1:21" ht="23.25" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="58"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="28"/>
     </row>
     <row r="6" spans="1:21" ht="23.25" customHeight="1" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1608,12 +1638,12 @@
       <c r="M6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="60"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="63"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="33"/>
     </row>
     <row r="7" spans="1:21" ht="23.25" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -1622,10 +1652,10 @@
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1649,29 +1679,29 @@
       <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="50" t="s">
+      <c r="M8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
     </row>
     <row r="9" spans="1:21" ht="23.25" customHeight="1">
       <c r="A9" s="8" t="s">
@@ -1680,25 +1710,25 @@
       <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="10"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="65" t="s">
+      <c r="M9" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
     </row>
@@ -1709,9 +1739,9 @@
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -1721,649 +1751,690 @@
         <v>11</v>
       </c>
       <c r="L10" s="11"/>
-      <c r="M10" s="65" t="s">
+      <c r="M10" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
     </row>
     <row r="11" spans="1:21" ht="27" customHeight="1" thickBot="1">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67" t="s">
+      <c r="B11" s="92"/>
+      <c r="C11" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67" t="s">
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="22" t="s">
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="67" t="s">
+      <c r="L11" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67" t="s">
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67" t="s">
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="68"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="94"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="28"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="90"/>
     </row>
     <row r="13" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="30"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="73"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="30"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="73"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="30"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="73"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="30"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="73"/>
     </row>
     <row r="17" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="30"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="73"/>
     </row>
     <row r="18" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A18" s="42"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="30"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="73"/>
     </row>
     <row r="19" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="30"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="73"/>
     </row>
     <row r="20" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A20" s="42"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="30"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="73"/>
     </row>
     <row r="21" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="30"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="73"/>
     </row>
     <row r="22" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="30"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="73"/>
     </row>
     <row r="23" spans="1:21" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="35"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="82"/>
     </row>
     <row r="24" spans="1:21" ht="27" customHeight="1" thickBot="1">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="83"/>
-      <c r="U24" s="84"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="63"/>
     </row>
     <row r="25" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="90"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="46"/>
     </row>
     <row r="26" spans="1:21" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A26" s="91"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="92"/>
-      <c r="U26" s="93"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="49"/>
     </row>
     <row r="27" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A27" s="85"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="85"/>
-      <c r="R27" s="85"/>
-      <c r="S27" s="85"/>
-      <c r="T27" s="85"/>
-      <c r="U27" s="18"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="17"/>
     </row>
     <row r="28" spans="1:21" ht="27.75" customHeight="1">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="18"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="17"/>
     </row>
     <row r="29" spans="1:21" ht="21" customHeight="1">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
     </row>
     <row r="30" spans="1:21" ht="21" customHeight="1">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="85"/>
-      <c r="U30" s="85"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
     </row>
     <row r="31" spans="1:21" ht="21" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="85" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="85"/>
-      <c r="O31" s="85"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="85"/>
-      <c r="R31" s="85"/>
-      <c r="S31" s="85"/>
-      <c r="T31" s="85"/>
-      <c r="U31" s="85"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
     </row>
     <row r="32" spans="1:21" ht="21" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="85" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="85"/>
-      <c r="R32" s="85"/>
-      <c r="S32" s="85"/>
-      <c r="T32" s="85"/>
-      <c r="U32" s="85"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
     </row>
     <row r="33" spans="1:21" ht="21" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
     </row>
     <row r="34" spans="1:21" ht="21" customHeight="1">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="86"/>
-      <c r="R34" s="86"/>
-      <c r="S34" s="86"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
     </row>
     <row r="35" spans="1:21" ht="21" customHeight="1">
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
-      <c r="Q35" s="87"/>
-      <c r="R35" s="87"/>
-      <c r="S35" s="87"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
     </row>
     <row r="36" spans="1:21" ht="21" customHeight="1">
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="87"/>
-      <c r="S36" s="87"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
     </row>
     <row r="1048575" spans="7:21" ht="21" customHeight="1" thickBot="1"/>
     <row r="1048576" spans="7:21" ht="21" customHeight="1">
       <c r="G1048576" s="36"/>
       <c r="H1048576" s="37"/>
-      <c r="R1048576" s="31"/>
-      <c r="S1048576" s="32"/>
-      <c r="T1048576" s="32"/>
-      <c r="U1048576" s="33"/>
+      <c r="R1048576" s="38"/>
+      <c r="S1048576" s="39"/>
+      <c r="T1048576" s="39"/>
+      <c r="U1048576" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="R1048576:U1048576"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="C32:U32"/>
+    <mergeCell ref="M34:S34"/>
+    <mergeCell ref="M35:S35"/>
+    <mergeCell ref="M36:S36"/>
+    <mergeCell ref="A25:U26"/>
+    <mergeCell ref="A27:T27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="C30:U30"/>
+    <mergeCell ref="C31:U31"/>
+    <mergeCell ref="G1048576:H1048576"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C12:E12"/>
@@ -2388,72 +2459,31 @@
     <mergeCell ref="M10:S10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="G1048576:H1048576"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="R12:U12"/>
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="R14:U14"/>
-    <mergeCell ref="R1048576:U1048576"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="C32:U32"/>
-    <mergeCell ref="M34:S34"/>
-    <mergeCell ref="M35:S35"/>
-    <mergeCell ref="M36:S36"/>
-    <mergeCell ref="A25:U26"/>
-    <mergeCell ref="A27:T27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="A29:P29"/>
-    <mergeCell ref="C30:U30"/>
-    <mergeCell ref="C31:U31"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="G21:H21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/baseOrder.xlsx
+++ b/baseOrder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hgbprj\gss\gssFe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB1EC38-46B4-42E5-9744-C27252D82C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDBCD32-C4D9-4809-906A-8CAB9F551BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="810" windowWidth="21600" windowHeight="12900" xr2:uid="{A50215DE-9D29-41F3-884E-67A90FB7FB21}"/>
+    <workbookView xWindow="-38520" yWindow="-2010" windowWidth="25845" windowHeight="15525" xr2:uid="{A50215DE-9D29-41F3-884E-67A90FB7FB21}"/>
   </bookViews>
   <sheets>
     <sheet name="발주" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>ORDER SHEET</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -79,10 +79,6 @@
   </si>
   <si>
     <t>납 기 일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!! 컬러 동일함</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -934,6 +930,123 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -985,49 +1098,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1045,9 +1137,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="16" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1067,99 +1156,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1183,9 +1179,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1223,7 +1219,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1329,7 +1325,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1471,7 +1467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1482,7 +1478,7 @@
   <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -1511,83 +1507,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="9" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
     </row>
     <row r="3" spans="1:21" ht="36" customHeight="1" thickBot="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
     </row>
     <row r="4" spans="1:21" ht="23.25" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1596,40 +1592,40 @@
       <c r="M4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="27"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="66"/>
     </row>
     <row r="5" spans="1:21" ht="23.25" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="28"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="67"/>
     </row>
     <row r="6" spans="1:21" ht="23.25" customHeight="1" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1638,12 +1634,12 @@
       <c r="M6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="33"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="72"/>
     </row>
     <row r="7" spans="1:21" ht="23.25" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -1652,10 +1648,10 @@
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1679,29 +1675,29 @@
       <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
     </row>
     <row r="9" spans="1:21" ht="23.25" customHeight="1">
       <c r="A9" s="8" t="s">
@@ -1710,25 +1706,25 @@
       <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="10"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="35" t="s">
+      <c r="M9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
     </row>
@@ -1739,451 +1735,449 @@
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="15"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
     </row>
     <row r="11" spans="1:21" ht="27" customHeight="1" thickBot="1">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92" t="s">
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92" t="s">
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93" t="s">
+      <c r="L11" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="92" t="s">
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92" t="s">
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92" t="s">
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="77"/>
+    </row>
+    <row r="12" spans="1:21" ht="22.5" customHeight="1">
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="80"/>
+    </row>
+    <row r="13" spans="1:21" ht="22.5" customHeight="1">
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="31"/>
+    </row>
+    <row r="14" spans="1:21" ht="22.5" customHeight="1">
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="31"/>
+    </row>
+    <row r="15" spans="1:21" ht="22.5" customHeight="1">
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="31"/>
+    </row>
+    <row r="16" spans="1:21" ht="22.5" customHeight="1">
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="31"/>
+    </row>
+    <row r="17" spans="1:21" ht="22.5" customHeight="1">
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="31"/>
+    </row>
+    <row r="18" spans="1:21" ht="22.5" customHeight="1">
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="31"/>
+    </row>
+    <row r="19" spans="1:21" ht="22.5" customHeight="1">
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="31"/>
+    </row>
+    <row r="20" spans="1:21" ht="22.5" customHeight="1">
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="31"/>
+    </row>
+    <row r="21" spans="1:21" ht="22.5" customHeight="1">
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="31"/>
+    </row>
+    <row r="22" spans="1:21" ht="22.5" customHeight="1">
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="31"/>
+    </row>
+    <row r="23" spans="1:21" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A23" s="53"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="33"/>
+    </row>
+    <row r="24" spans="1:21" ht="27" customHeight="1" thickBot="1">
+      <c r="A24" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="94"/>
-    </row>
-    <row r="12" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A12" s="83"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="90"/>
-    </row>
-    <row r="13" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A13" s="72"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="73"/>
-    </row>
-    <row r="14" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A14" s="72"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="73"/>
-    </row>
-    <row r="15" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A15" s="72"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="73"/>
-    </row>
-    <row r="16" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A16" s="72"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="73"/>
-    </row>
-    <row r="17" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A17" s="72"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="73"/>
-    </row>
-    <row r="18" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A18" s="72"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="73"/>
-    </row>
-    <row r="19" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A19" s="72"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="73"/>
-    </row>
-    <row r="20" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A20" s="72"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="73"/>
-    </row>
-    <row r="21" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A21" s="72"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="73"/>
-    </row>
-    <row r="22" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A22" s="72"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="73"/>
-    </row>
-    <row r="23" spans="1:21" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A23" s="74"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="82"/>
-    </row>
-    <row r="24" spans="1:21" ht="27" customHeight="1" thickBot="1">
-      <c r="A24" s="51" t="s">
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="93"/>
+      <c r="T24" s="93"/>
+      <c r="U24" s="94"/>
+    </row>
+    <row r="25" spans="1:21" ht="22.5" customHeight="1">
+      <c r="A25" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="63"/>
-    </row>
-    <row r="25" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A25" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="46"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="39"/>
     </row>
     <row r="26" spans="1:21" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="49"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="42"/>
     </row>
     <row r="27" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
       <c r="U27" s="17"/>
     </row>
     <row r="28" spans="1:21" ht="27.75" customHeight="1">
       <c r="A28" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
@@ -2198,24 +2192,24 @@
       <c r="U28" s="17"/>
     </row>
     <row r="29" spans="1:21" ht="21" customHeight="1">
-      <c r="A29" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
+      <c r="A29" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
@@ -2225,75 +2219,75 @@
     <row r="30" spans="1:21" ht="21" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
     </row>
     <row r="31" spans="1:21" ht="21" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
+      <c r="C31" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
     </row>
     <row r="32" spans="1:21" ht="21" customHeight="1">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
-      <c r="C32" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
+      <c r="C32" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
     </row>
     <row r="33" spans="1:21" ht="21" customHeight="1">
       <c r="A33" s="17"/>
@@ -2320,7 +2314,7 @@
     </row>
     <row r="34" spans="1:21" ht="21" customHeight="1">
       <c r="A34" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -2333,108 +2327,70 @@
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
       <c r="T34" s="18"/>
       <c r="U34" s="18"/>
     </row>
     <row r="35" spans="1:21" ht="21" customHeight="1">
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
     </row>
     <row r="36" spans="1:21" ht="21" customHeight="1">
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
     </row>
     <row r="1048575" spans="7:21" ht="21" customHeight="1" thickBot="1"/>
     <row r="1048576" spans="7:21" ht="21" customHeight="1">
-      <c r="G1048576" s="36"/>
-      <c r="H1048576" s="37"/>
-      <c r="R1048576" s="38"/>
-      <c r="S1048576" s="39"/>
-      <c r="T1048576" s="39"/>
-      <c r="U1048576" s="40"/>
+      <c r="G1048576" s="44"/>
+      <c r="H1048576" s="45"/>
+      <c r="R1048576" s="27"/>
+      <c r="S1048576" s="28"/>
+      <c r="T1048576" s="28"/>
+      <c r="U1048576" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="R1048576:U1048576"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="C32:U32"/>
-    <mergeCell ref="M34:S34"/>
-    <mergeCell ref="M35:S35"/>
-    <mergeCell ref="M36:S36"/>
-    <mergeCell ref="A25:U26"/>
-    <mergeCell ref="A27:T27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="A29:P29"/>
-    <mergeCell ref="C30:U30"/>
-    <mergeCell ref="C31:U31"/>
-    <mergeCell ref="G1048576:H1048576"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="R14:U14"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C12:E12"/>
@@ -2459,31 +2415,69 @@
     <mergeCell ref="M10:S10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="R1048576:U1048576"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="C32:U32"/>
+    <mergeCell ref="M34:S34"/>
+    <mergeCell ref="M35:S35"/>
+    <mergeCell ref="M36:S36"/>
+    <mergeCell ref="A25:U26"/>
+    <mergeCell ref="A27:T27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="C30:U30"/>
+    <mergeCell ref="C31:U31"/>
+    <mergeCell ref="G1048576:H1048576"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G15:H15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
